--- a/MEQ EDA & Total Events Calculation/Total_MEQ_Events.xlsx
+++ b/MEQ EDA & Total Events Calculation/Total_MEQ_Events.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1021"/>
+  <dimension ref="A1:B1041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8609,6 +8609,166 @@
         <v>57</v>
       </c>
     </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45207</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
